--- a/Data_all/Data_24_all.xlsx
+++ b/Data_all/Data_24_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -144,6 +144,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -169,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -226,8 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -529,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2461,21 +2460,99 @@
         <v>1.3400000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <f>AVERAGE(L3:L26)</f>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4">
+        <f>AVERAGE(B3:B26)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:L27" si="14">AVERAGE(C3:C26)</f>
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="14"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="14"/>
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="14"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="14"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="14"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="14"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="14"/>
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="14"/>
         <v>9.8611111111111149E-2</v>
       </c>
-      <c r="N29" s="8">
-        <f>AVERAGE(Y3:Y26)</f>
+      <c r="N27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="4">
+        <f>AVERAGE(O3:O26)</f>
+        <v>1.3644444444444446</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" ref="P27:Y27" si="15">AVERAGE(P3:P26)</f>
+        <v>1.485555555555556</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.2058333333333333</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.3294444444444444</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.2186111111111113</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4288888888888887</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4458333333333331</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4819444444444443</v>
+      </c>
+      <c r="W27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.3958333333333333</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4211111111111112</v>
+      </c>
+      <c r="Y27" s="4">
+        <f t="shared" si="15"/>
         <v>1.37775</v>
       </c>
     </row>

--- a/Data_all/Data_24_all.xlsx
+++ b/Data_all/Data_24_all.xlsx
@@ -239,6 +239,579 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="185624832"/>
+        <c:axId val="185634816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="185624832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185634816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="185634816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="185624832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.2973333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7346666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5993333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5766666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4266666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3386666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5433333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3433333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1513333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1586666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1993333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0946666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1946666666666665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3433333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3400000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="186256768"/>
+        <c:axId val="186262656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186256768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186262656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186262656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186256768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>94191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128057</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +1104,7 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="Y3" sqref="Y3:Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2564,6 +3137,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_24_all.xlsx
+++ b/Data_all/Data_24_all.xlsx
@@ -268,8 +268,170 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.22110831935702668</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26874192494328503</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16666666666666669</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22360679774997896</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.21343747458109494</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.21343747458109494</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.22110831935702668</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.26874192494328503</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.22360679774997896</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.32659863237109038</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.30550504633038938</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.22110831935702668</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26874192494328503</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16666666666666669</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22360679774997896</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.21343747458109494</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.21343747458109494</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.22110831935702668</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.26874192494328503</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.22360679774997896</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.32659863237109038</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.30550504633038938</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -443,11 +605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185624832"/>
-        <c:axId val="185634816"/>
+        <c:axId val="234002304"/>
+        <c:axId val="234003840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185624832"/>
+        <c:axId val="234002304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185634816"/>
+        <c:crossAx val="234003840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -465,10 +627,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185634816"/>
+        <c:axId val="234003840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -478,7 +640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185624832"/>
+        <c:crossAx val="234002304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -522,8 +684,170 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>0.20494335260695357</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.32003888652613582</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42101939781123193</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17649047818193639</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32745483149079768</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11729544842926445</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.40480722435362865</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.16116933813711418</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.17257397769587979</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13659510321465379</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.13980303605032701</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.11590992671514802</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.22608651244846736</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.13222203548072711</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.25733333333333269</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.203659847130782</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.11457360564768444</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.29510450126466536</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.24193663082165506</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.26897418298251247</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.29959973297718406</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.44976043005631905</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.30623520372419699</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.22603834482966087</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$26</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>0.20494335260695357</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.32003888652613582</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.42101939781123193</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.17649047818193639</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.32745483149079768</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.11729544842926445</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.40480722435362865</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.16116933813711418</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.17257397769587979</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13659510321465379</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.13980303605032701</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.11590992671514802</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.22608651244846736</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.13222203548072711</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.25733333333333269</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.203659847130782</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.11457360564768444</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.29510450126466536</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.24193663082165506</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.26897418298251247</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.29959973297718406</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.44976043005631905</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.30623520372419699</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0.22603834482966087</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -697,11 +1021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186256768"/>
-        <c:axId val="186262656"/>
+        <c:axId val="234695680"/>
+        <c:axId val="234705664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186256768"/>
+        <c:axId val="234695680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +1035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186262656"/>
+        <c:crossAx val="234705664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,10 +1043,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186262656"/>
+        <c:axId val="234705664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -732,7 +1056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186256768"/>
+        <c:crossAx val="234695680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,15 +1425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1139,7 +1463,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1209,7 +1533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1247,6 +1571,10 @@
         <f>AVERAGE(B3:K3)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
+        <v>0.1</v>
+      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
@@ -1284,8 +1612,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.2973333333333332</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.20494335260695357</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1323,6 +1655,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0.19999999999999998</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M26" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0.22110831935702668</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1357,11 +1693,15 @@
         <v>1.54</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>1.7346666666666668</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z26" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.32003888652613582</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1399,6 +1739,10 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.26874192494328503</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1433,11 +1777,15 @@
         <v>2.2733333333333334</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5993333333333335</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.42101939781123193</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1475,6 +1823,10 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1509,11 +1861,15 @@
         <v>1.4400000000000002</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5766666666666667</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.17649047818193639</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1551,6 +1907,10 @@
         <f>AVERAGE(B7:K7)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N7" s="3">
         <v>4</v>
       </c>
@@ -1588,8 +1948,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>1.4266666666666665</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.32745483149079768</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1627,6 +1991,10 @@
         <f>AVERAGE(B8:K8)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N8" s="3">
         <v>5</v>
       </c>
@@ -1664,8 +2032,12 @@
         <f>AVERAGE(O8:X8)</f>
         <v>1.3386666666666664</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.11729544842926445</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1703,6 +2075,10 @@
         <f>AVERAGE(B9:K9)</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.22360679774997896</v>
+      </c>
       <c r="N9" s="3">
         <v>6</v>
       </c>
@@ -1740,8 +2116,12 @@
         <f>AVERAGE(O9:X9)</f>
         <v>1.5433333333333334</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0.40480722435362865</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1776,8 +2156,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10" si="2">AVERAGE(B10:K10)</f>
+        <f t="shared" ref="L10" si="4">AVERAGE(B10:K10)</f>
         <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="N10" s="3">
         <v>7</v>
@@ -1813,11 +2197,15 @@
         <v>1.3933333333333333</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="3">AVERAGE(O10:X10)</f>
+        <f t="shared" ref="Y10" si="5">AVERAGE(O10:X10)</f>
         <v>1.3433333333333333</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>0.16116933813711418</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1853,6 +2241,10 @@
       </c>
       <c r="L11" s="5">
         <f>AVERAGE(B11:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
@@ -1892,8 +2284,12 @@
         <f>AVERAGE(O11:X11)</f>
         <v>1.254</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>0.17257397769587979</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1928,8 +2324,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12" si="4">AVERAGE(B12:K12)</f>
+        <f t="shared" ref="L12" si="6">AVERAGE(B12:K12)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
         <v>9</v>
@@ -1965,11 +2365,15 @@
         <v>1.2266666666666666</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" ref="Y12" si="5">AVERAGE(O12:X12)</f>
+        <f t="shared" ref="Y12" si="7">AVERAGE(O12:X12)</f>
         <v>1.1513333333333335</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0.13659510321465379</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2005,6 +2409,10 @@
       </c>
       <c r="L13" s="5">
         <f>AVERAGE(B13:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="3">
@@ -2044,8 +2452,12 @@
         <f>AVERAGE(O13:X13)</f>
         <v>1.1586666666666665</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0.13980303605032701</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2080,7 +2492,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14" si="6">AVERAGE(B14:K14)</f>
+        <f t="shared" ref="L14" si="8">AVERAGE(B14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="3">
@@ -2117,11 +2533,15 @@
         <v>1.08</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" ref="Y14" si="7">AVERAGE(O14:X14)</f>
+        <f t="shared" ref="Y14" si="9">AVERAGE(O14:X14)</f>
         <v>1.054</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>0.11590992671514802</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2159,6 +2579,10 @@
         <f>AVERAGE(B15:K15)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N15" s="3">
         <v>12</v>
       </c>
@@ -2196,8 +2620,12 @@
         <f>AVERAGE(O15:X15)</f>
         <v>1.1993333333333334</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>0.22608651244846736</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2232,8 +2660,12 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:L17" si="8">AVERAGE(B16:K16)</f>
+        <f t="shared" ref="L16:L17" si="10">AVERAGE(B16:K16)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N16" s="3">
         <v>13</v>
@@ -2269,11 +2701,15 @@
         <v>1.0533333333333332</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16:Y17" si="9">AVERAGE(O16:X16)</f>
+        <f t="shared" ref="Y16:Y17" si="11">AVERAGE(O16:X16)</f>
         <v>1.0946666666666667</v>
       </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>0.13222203548072711</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2308,8 +2744,12 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.21343747458109494</v>
       </c>
       <c r="N17" s="3">
         <v>14</v>
@@ -2345,11 +2785,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2280000000000002</v>
       </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>0.25733333333333269</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2387,6 +2831,10 @@
         <f>AVERAGE(B18:K18)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N18" s="3">
         <v>15</v>
       </c>
@@ -2424,8 +2872,12 @@
         <f>AVERAGE(O18:X18)</f>
         <v>1.236</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>0.203659847130782</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2461,6 +2913,10 @@
       </c>
       <c r="L19" s="5">
         <f>AVERAGE(B19:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="3">
@@ -2500,8 +2956,12 @@
         <f>AVERAGE(O19:X19)</f>
         <v>1.1946666666666665</v>
       </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>0.11457360564768444</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2536,8 +2996,12 @@
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" ref="L20:L22" si="10">AVERAGE(B20:K20)</f>
+        <f t="shared" ref="L20:L22" si="12">AVERAGE(B20:K20)</f>
         <v>0.1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.21343747458109494</v>
       </c>
       <c r="N20" s="3">
         <v>17</v>
@@ -2573,11 +3037,15 @@
         <v>1.42</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" ref="Y20:Y22" si="11">AVERAGE(O20:X20)</f>
+        <f t="shared" ref="Y20:Y22" si="13">AVERAGE(O20:X20)</f>
         <v>1.3433333333333333</v>
       </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>0.29510450126466536</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2612,8 +3080,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.19999999999999998</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.22110831935702668</v>
       </c>
       <c r="N21" s="3">
         <v>18</v>
@@ -2649,11 +3121,15 @@
         <v>1.9400000000000002</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5066666666666666</v>
       </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0.24193663082165506</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2688,8 +3164,12 @@
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.26874192494328503</v>
       </c>
       <c r="N22" s="3">
         <v>19</v>
@@ -2725,11 +3205,15 @@
         <v>1.22</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4420000000000002</v>
       </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>0.26897418298251247</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -2767,6 +3251,10 @@
         <f>AVERAGE(B23:K23)</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.22360679774997896</v>
+      </c>
       <c r="N23" s="3">
         <v>20</v>
       </c>
@@ -2804,8 +3292,12 @@
         <f>AVERAGE(O23:X23)</f>
         <v>1.56</v>
       </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>0.29959973297718406</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2840,8 +3332,12 @@
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" ref="L24:L26" si="12">AVERAGE(B24:K24)</f>
+        <f t="shared" ref="L24:L26" si="14">AVERAGE(B24:K24)</f>
         <v>0.26666666666666672</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.32659863237109038</v>
       </c>
       <c r="N24" s="3">
         <v>21</v>
@@ -2877,11 +3373,15 @@
         <v>1.3666666666666665</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" ref="Y24:Y26" si="13">AVERAGE(O24:X24)</f>
+        <f t="shared" ref="Y24:Y26" si="15">AVERAGE(O24:X24)</f>
         <v>1.7333333333333332</v>
       </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>0.44976043005631905</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2916,8 +3416,12 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.19999999999999998</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.30550504633038938</v>
       </c>
       <c r="N25" s="3">
         <v>22</v>
@@ -2953,11 +3457,15 @@
         <v>1.4000000000000001</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7100000000000002</v>
       </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>0.30623520372419699</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2992,8 +3500,12 @@
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="N26" s="3">
         <v>23</v>
@@ -3029,11 +3541,15 @@
         <v>1.3666666666666665</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3400000000000003</v>
       </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>0.22603834482966087</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -3042,43 +3558,43 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:L27" si="14">AVERAGE(C3:C26)</f>
+        <f t="shared" ref="C27:L27" si="16">AVERAGE(C3:C26)</f>
         <v>0.15277777777777776</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.19444444444444445</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.125</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.722222222222221E-2</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.722222222222221E-2</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.8611111111111149E-2</v>
       </c>
       <c r="N27" s="3" t="s">
@@ -3089,43 +3605,43 @@
         <v>1.3644444444444446</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" ref="P27:Y27" si="15">AVERAGE(P3:P26)</f>
+        <f t="shared" ref="P27:Y27" si="17">AVERAGE(P3:P26)</f>
         <v>1.485555555555556</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2058333333333333</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3294444444444444</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2186111111111113</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4288888888888887</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4458333333333331</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4819444444444443</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3958333333333333</v>
       </c>
       <c r="X27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.4211111111111112</v>
       </c>
       <c r="Y27" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.37775</v>
       </c>
     </row>
